--- a/Peaks_Month.xlsx
+++ b/Peaks_Month.xlsx
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.917</v>
+        <v>1.5972290185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.168</v>
+        <v>1.4333769443</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.893</v>
+        <v>1.4648810306</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -418,7 +418,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9590000000000001</v>
+        <v>1.3283572192</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -426,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.041</v>
+        <v>1.5178888889</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -434,7 +434,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.999</v>
+        <v>1.3748507687</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -442,7 +442,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.975</v>
+        <v>1.3417896769</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9580000000000001</v>
+        <v>1.6333748958</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -458,7 +458,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.044</v>
+        <v>1.4929037057</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -466,7 +466,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9470000000000001</v>
+        <v>1.5098210489</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -474,7 +474,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.867</v>
+        <v>1.4353980555</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -482,7 +482,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.977</v>
+        <v>1.3989891665</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -490,7 +490,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9490000000000001</v>
+        <v>1.5824213889</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.005</v>
+        <v>1.3833822222</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -506,7 +506,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.87</v>
+        <v>1.3633630558</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -514,7 +514,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.095</v>
+        <v>1.6230982788</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -522,7 +522,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.071</v>
+        <v>1.365</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -530,7 +530,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.021</v>
+        <v>1.5436086043</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -538,7 +538,15 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.081</v>
+        <v>1.5989197218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1.4707985559</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks_Month.xlsx
+++ b/Peaks_Month.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Peak Loads for January 2023</t>
+    <t>Peak Loads for January 2023 (Mthembanji)</t>
   </si>
   <si>
     <t>Day</t>
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -549,6 +549,46 @@
         <v>1.4707985559</v>
       </c>
     </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.6200941865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1.5954423763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.7297849259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1.4628754852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.583</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Peaks_Month.xlsx
+++ b/Peaks_Month.xlsx
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,7 +586,55 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.583</v>
+        <v>1.6178079838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1.6098801497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.4845876155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.5168604767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.5364224985</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.2674639543</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1.3692795098</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks_Month.xlsx
+++ b/Peaks_Month.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Peak Loads for January 2023 (Mthembanji)</t>
+    <t>Peak Loads for February 2023 (Mthembanji)</t>
   </si>
   <si>
     <t>Day</t>
@@ -368,7 +368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.5972290185</v>
+        <v>1.3614489085</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.4333769443</v>
+        <v>1.2729952778</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.4648810306</v>
+        <v>1.3840089885</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -418,7 +418,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.3283572192</v>
+        <v>1.2892532939</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -426,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.5178888889</v>
+        <v>1.3583622221</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -434,7 +434,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.3748507687</v>
+        <v>1.3238447323</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -442,7 +442,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.3417896769</v>
+        <v>1.2468574433</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -450,7 +450,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.6333748958</v>
+        <v>1.3482292789</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -458,7 +458,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.4929037057</v>
+        <v>1.4313720818</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -466,7 +466,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.5098210489</v>
+        <v>1.4873966665</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -474,167 +474,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.4353980555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1.3989891665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1.5824213889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1.3833822222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1.3633630558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1.6230982788</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1.365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1.5436086043</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1.5989197218</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1.4707985559</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>1.6200941865</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>1.5954423763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>1.7297849259</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>1.4628754852</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1.6178079838</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1.6098801497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1.4845876155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1.5168604767</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1.5364224985</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>1.2674639543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1.3692795098</v>
+        <v>1.4914065273</v>
       </c>
     </row>
   </sheetData>
